--- a/Projet organisation.xlsx
+++ b/Projet organisation.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ducch\Desktop\Bossage\Arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\projet arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F335F329-9A72-4D54-B4D0-45600586714F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{37836518-4A28-4F51-B3B5-737F2E7A44DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{55E98D52-7935-46D5-A439-79AFD0319A57}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,86 +25,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Roulette</t>
   </si>
   <si>
+    <t>Maquette</t>
+  </si>
+  <si>
+    <t>"pousseur"</t>
+  </si>
+  <si>
+    <t>Optionelle : lancement de la roulette</t>
+  </si>
+  <si>
+    <t>lancement bille</t>
+  </si>
+  <si>
+    <t>Capteur couleur + stop</t>
+  </si>
+  <si>
+    <t>Triage</t>
+  </si>
+  <si>
+    <t>Redistibution</t>
+  </si>
+  <si>
+    <t>panneau de contrôle</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Materiel</t>
+  </si>
+  <si>
+    <t>capteur aiment</t>
+  </si>
+  <si>
+    <t>capteur distance</t>
+  </si>
+  <si>
+    <t>Moteur servo/continue ?</t>
+  </si>
+  <si>
+    <t>Moteur servo/pas a pas ? + système "switch" entre avec/sans moteur</t>
+  </si>
+  <si>
+    <t>Moteur pas a pas ?</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>capteurs</t>
+  </si>
+  <si>
+    <t>Programmation</t>
+  </si>
+  <si>
+    <t>CHARLY</t>
+  </si>
+  <si>
+    <t>YIDONG</t>
+  </si>
+  <si>
+    <t>Capteur couleur + servomoteur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> servomoteur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> servomoteur +  servomoteur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>manipulation jeton</t>
-  </si>
-  <si>
-    <t>Maquette</t>
-  </si>
-  <si>
-    <t>"pousseur"</t>
-  </si>
-  <si>
-    <t>Optionelle : lancement de la roulette</t>
-  </si>
-  <si>
-    <t>lancement bille</t>
-  </si>
-  <si>
-    <t>Capteur couleur + stop</t>
-  </si>
-  <si>
-    <t>Triage</t>
-  </si>
-  <si>
-    <t>Redistibution</t>
-  </si>
-  <si>
-    <t>panneau de contrôle</t>
-  </si>
-  <si>
-    <t>Prototype</t>
-  </si>
-  <si>
-    <t>Materiel</t>
-  </si>
-  <si>
-    <t>capteur aiment</t>
-  </si>
-  <si>
-    <t>capteur distance</t>
-  </si>
-  <si>
-    <t>Moteur servo/continue ?</t>
-  </si>
-  <si>
-    <t>Moteur servo/pas a pas ? + système "switch" entre avec/sans moteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capteur couleur + </t>
-  </si>
-  <si>
-    <t>Moteur pas a pas ?</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>capteurs</t>
-  </si>
-  <si>
-    <t>Programmation</t>
-  </si>
-  <si>
-    <t>CHARLY</t>
-  </si>
-  <si>
-    <t>YIDONG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Planning initial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Planning finale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction physique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pas encore fini)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -112,8 +138,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -155,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -163,16 +204,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -188,7 +236,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -484,149 +532,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694A7D14-6DA9-4A8E-90EC-A772F421E7D1}">
-  <dimension ref="A2:N17"/>
+  <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.21875" customWidth="1"/>
     <col min="14" max="14" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="N6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="2"/>
       <c r="N7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2"/>
       <c r="N8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="N9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="N10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="N13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1" t="s">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="N22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="N26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A13:A17"/>
+  <mergeCells count="6">
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:A30"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Projet organisation.xlsx
+++ b/Projet organisation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\projet arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\projet arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{37836518-4A28-4F51-B3B5-737F2E7A44DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5157323C-F155-4F2B-B580-0823B0B915A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{55E98D52-7935-46D5-A439-79AFD0319A57}"/>
   </bookViews>
@@ -25,7 +25,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+  <si>
+    <t>Capteur couleur + stop</t>
+  </si>
+  <si>
+    <t>Triage</t>
+  </si>
+  <si>
+    <t>Redistibution</t>
+  </si>
+  <si>
+    <t>panneau de contrôle</t>
+  </si>
+  <si>
+    <t>Capteur couleur + servomoteur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> servomoteur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> servomoteur +  servomoteur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manipulation jeton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Planning initial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Planning finale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction physique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pas encore fini)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/12/2019</t>
+  </si>
+  <si>
+    <t>17/12/2019</t>
+  </si>
+  <si>
+    <t>09/01/2020</t>
+  </si>
+  <si>
+    <t>14/01/2020</t>
+  </si>
+  <si>
+    <t>06/02/2020</t>
+  </si>
+  <si>
+    <t>13/02/2020</t>
+  </si>
+  <si>
+    <t>27/02/2020</t>
+  </si>
+  <si>
+    <t>06/03/2020</t>
+  </si>
+  <si>
+    <t>manipulation  jeton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capteur couleur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Roulette</t>
   </si>
@@ -33,109 +109,57 @@
     <t>Maquette</t>
   </si>
   <si>
+    <t>capteurs</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Programmation</t>
+  </si>
+  <si>
     <t>"pousseur"</t>
   </si>
   <si>
+    <t>lancement bille</t>
+  </si>
+  <si>
     <t>Optionelle : lancement de la roulette</t>
   </si>
   <si>
-    <t>lancement bille</t>
-  </si>
-  <si>
-    <t>Capteur couleur + stop</t>
-  </si>
-  <si>
-    <t>Triage</t>
-  </si>
-  <si>
-    <t>Redistibution</t>
-  </si>
-  <si>
-    <t>panneau de contrôle</t>
-  </si>
-  <si>
-    <t>Prototype</t>
+    <t>Moteur pas a pas ?</t>
+  </si>
+  <si>
+    <t>capteur aiment</t>
+  </si>
+  <si>
+    <t>capteur distance</t>
+  </si>
+  <si>
+    <t>Moteur servo/continue ?</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Moteur servo/pas a pas ? + système "switch" entre avec/sans moteur</t>
   </si>
   <si>
     <t>Materiel</t>
   </si>
   <si>
-    <t>capteur aiment</t>
-  </si>
-  <si>
-    <t>capteur distance</t>
-  </si>
-  <si>
-    <t>Moteur servo/continue ?</t>
-  </si>
-  <si>
-    <t>Moteur servo/pas a pas ? + système "switch" entre avec/sans moteur</t>
-  </si>
-  <si>
-    <t>Moteur pas a pas ?</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>capteurs</t>
-  </si>
-  <si>
-    <t>Programmation</t>
-  </si>
-  <si>
     <t>CHARLY</t>
   </si>
   <si>
     <t>YIDONG</t>
-  </si>
-  <si>
-    <t>Capteur couleur + servomoteur</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> servomoteur</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> servomoteur +  servomoteur</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>manipulation jeton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Planning initial</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Planning finale</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction physique</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(pas encore fini)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -157,6 +181,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -167,13 +214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,28 +243,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -532,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694A7D14-6DA9-4A8E-90EC-A772F421E7D1}">
-  <dimension ref="A2:N30"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -544,215 +609,387 @@
     <col min="14" max="14" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="N8" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="N9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="N10" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="N11" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="N12" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="N14" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N5" s="4" t="s">
+      <c r="B16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="N16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="N17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="N6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="N7" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="N8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="N9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1" t="s">
+      <c r="M18" s="19"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="N10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="N19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="N20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="N21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="N22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="N26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="N27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" s="10"/>
-      <c r="N29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:A30"/>
+  <mergeCells count="5">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
